--- a/xlsx/引擎_intext.xlsx
+++ b/xlsx/引擎_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>引擎</t>
   </si>
@@ -29,7 +29,7 @@
     <t>电动机</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_引擎</t>
+    <t>政策_政策_混合动力车辆_引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E8%83%BD</t>
   </si>
   <si>
-    <t>化學能</t>
+    <t>化学能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E8%83%BD</t>
@@ -119,25 +119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>氣體</t>
+    <t>气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8D%8B%E7%88%90</t>
   </si>
   <si>
-    <t>鍋爐</t>
+    <t>锅炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪機</t>
+    <t>涡轮机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>一世紀</t>
+    <t>一世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AB%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>十八世紀</t>
+    <t>十八世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E7%89%B9%E9%87%8C%E7%B6%AD%E8%A5%BF%E5%85%8B</t>
   </si>
   <si>
-    <t>理查·特里維西克</t>
+    <t>理查·特里维西克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BD%A6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%80%E5%A4%8D%E5%BC%8F%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -221,31 +221,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>機車</t>
+    <t>机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E6%97%8B%E6%A7%B3</t>
   </si>
   <si>
-    <t>螺旋槳</t>
+    <t>螺旋桨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E5%A5%A7%E6%89%98</t>
   </si>
   <si>
-    <t>尼古拉斯·奧托</t>
+    <t>尼古拉斯·奥托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%86%B2%E7%A8%8B</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E6%9C%AC%E8%8C%A8</t>
   </si>
   <si>
-    <t>卡爾·本茨</t>
+    <t>卡尔·本茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92</t>
@@ -275,15 +275,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>蒸汽火車</t>
+    <t>蒸汽火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E7%8B%84%E5%A1%9E%E5%B0%94</t>
   </si>
   <si>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>柴油機</t>
+    <t>柴油机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%89%B9%E5%85%84%E5%BC%9F</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E9%AB%94%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>固體火箭</t>
+    <t>固体火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%88%88%E8%BE%BE%E5%BE%B7</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4</t>
@@ -437,9 +434,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E7%87%83%E6%9C%BA</t>
   </si>
   <si>
-    <t>内燃机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99</t>
   </si>
   <si>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%A2%9E%E5%A3%93</t>
   </si>
   <si>
-    <t>渦輪增壓</t>
+    <t>涡轮增压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%BF%AA</t>
   </si>
   <si>
-    <t>奧迪</t>
+    <t>奥迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94</t>
   </si>
   <si>
-    <t>馬自達</t>
+    <t>马自达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%B7%E6%B0%94%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -647,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E8%9E%BA%E6%97%8B%E6%A7%B3%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪螺旋槳發動機</t>
+    <t>涡轮螺旋桨发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E8%BB%B8%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪軸發動機</t>
+    <t>涡轮轴发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E9%A3%9E%E6%9C%BA</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%B0%E8%AE%8A</t>
   </si>
   <si>
-    <t>衰變</t>
+    <t>衰变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E5%B8%86</t>
@@ -887,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%99%E5%9F%BA%E9%89%9B</t>
   </si>
   <si>
-    <t>四乙基鉛</t>
+    <t>四乙基铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%85</t>
@@ -917,13 +911,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>航空發動機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%AD%90%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>轉子引擎</t>
+    <t>转子引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0%E5%A2%9E%E5%8E%8B%E5%99%A8</t>
@@ -935,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%A2%9E%E5%A3%93%E5%99%A8</t>
   </si>
   <si>
-    <t>渦輪增壓器</t>
+    <t>涡轮增压器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -2591,7 +2582,7 @@
         <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2617,10 +2608,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2646,10 +2637,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2675,10 +2666,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2704,10 +2695,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2733,10 +2724,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2762,10 +2753,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>12</v>
@@ -2791,10 +2782,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2820,10 +2811,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>59</v>
@@ -2849,10 +2840,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
@@ -2878,10 +2869,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2907,10 +2898,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2936,10 +2927,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2965,10 +2956,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>16</v>
@@ -2994,10 +2985,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3023,10 +3014,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3052,10 +3043,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3081,10 +3072,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>17</v>
@@ -3110,10 +3101,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3139,10 +3130,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>16</v>
@@ -3168,10 +3159,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3197,10 +3188,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3226,10 +3217,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>9</v>
@@ -3255,10 +3246,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3284,10 +3275,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3313,10 +3304,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3342,10 +3333,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G71" t="n">
         <v>38</v>
@@ -3371,10 +3362,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3400,10 +3391,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3429,10 +3420,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>20</v>
@@ -3458,10 +3449,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>10</v>
@@ -3487,10 +3478,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -3516,10 +3507,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3545,10 +3536,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -3574,10 +3565,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>5</v>
@@ -3603,10 +3594,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3632,10 +3623,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3661,10 +3652,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>18</v>
@@ -3690,10 +3681,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -3719,10 +3710,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>8</v>
@@ -3748,10 +3739,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3777,10 +3768,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3806,10 +3797,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3835,10 +3826,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3864,10 +3855,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -3893,10 +3884,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3922,10 +3913,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3951,10 +3942,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3980,10 +3971,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4009,10 +4000,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4038,10 +4029,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4067,10 +4058,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>15</v>
@@ -4096,10 +4087,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4125,10 +4116,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>15</v>
@@ -4154,10 +4145,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -4183,10 +4174,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4212,10 +4203,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>10</v>
@@ -4241,10 +4232,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4270,10 +4261,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4299,10 +4290,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4328,10 +4319,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4357,10 +4348,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -4386,10 +4377,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4415,10 +4406,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4444,10 +4435,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>7</v>
@@ -4473,10 +4464,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4502,10 +4493,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>5</v>
@@ -4531,10 +4522,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>15</v>
@@ -4560,10 +4551,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>14</v>
@@ -4589,10 +4580,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -4618,10 +4609,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
@@ -4647,10 +4638,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -4676,10 +4667,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4705,10 +4696,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4734,10 +4725,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4763,10 +4754,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4792,10 +4783,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4821,10 +4812,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4850,10 +4841,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4879,10 +4870,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4908,10 +4899,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4937,10 +4928,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4966,10 +4957,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4995,10 +4986,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5024,10 +5015,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5053,10 +5044,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5082,10 +5073,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5111,10 +5102,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5140,10 +5131,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5169,10 +5160,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5198,10 +5189,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>8</v>
@@ -5227,10 +5218,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5256,10 +5247,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5285,10 +5276,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>13</v>
@@ -5314,10 +5305,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5343,10 +5334,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5372,10 +5363,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5401,10 +5392,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5430,10 +5421,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5459,10 +5450,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5488,10 +5479,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5517,10 +5508,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5546,10 +5537,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>6</v>
@@ -5575,10 +5566,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5604,10 +5595,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5633,10 +5624,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5662,10 +5653,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>120</v>
+      </c>
+      <c r="F151" t="s">
         <v>121</v>
-      </c>
-      <c r="F151" t="s">
-        <v>122</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5691,10 +5682,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5720,10 +5711,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" t="s">
         <v>103</v>
-      </c>
-      <c r="F153" t="s">
-        <v>104</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5749,10 +5740,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5778,10 +5769,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5807,10 +5798,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5836,10 +5827,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>12</v>
@@ -5865,10 +5856,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
